--- a/pred_ohlcv/54_21/2019-11-19 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-19 FCT ohlcv.xlsx
@@ -3746,7 +3746,7 @@
         <v>122954.5695008022</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>83858.36222470437</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>83384.87212470437</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>83168.66872470437</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>108255.0379247044</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>57824.56782470438</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>57824.56782470438</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>48989.70252470438</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>32293.80812470438</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-194691.8991232426</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-194686.8991232426</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-194686.8991232426</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-208769.4677232426</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-211192.6104232426</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-211192.6104232426</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-211192.6104232426</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-192346.8123232427</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-199942.1783232427</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-199942.1783232427</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-199942.1783232427</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-199620.0755232427</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-199605.2710232427</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-199615.2710232427</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-199615.2710232427</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-199610.2710232427</v>
       </c>
       <c r="H320">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-201502.3338232427</v>
       </c>
       <c r="H321">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-195675.3433232427</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-198980.3433232427</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-198980.3433232427</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-198980.3433232427</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-198980.3433232427</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-198980.3433232427</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-143006.2985232427</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-275514.594699349</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-259627.603999349</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-259627.603999349</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-281101.2840993491</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-307033.5915993491</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-307028.5915993491</v>
       </c>
       <c r="H437">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-351370.0851993491</v>
       </c>
       <c r="H438">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-19 FCT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-19 FCT ohlcv.xlsx
@@ -4240,7 +4240,7 @@
         <v>83858.36222470437</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>83384.87212470437</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>83168.66872470437</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>85930.23332470437</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-216004.4001142336</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-216004.4001142336</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-216004.4001142336</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-199866.2390142336</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-199866.2390142336</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-199866.2390142336</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-199866.2390142336</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-199866.2390142336</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-199866.2390142336</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-199866.2390142336</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-199866.2390142336</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-175954.8571142336</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-175954.8571142336</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-151374.3145232426</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-151374.3145232426</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-171183.6477232426</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-189431.1698232426</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-189431.1698232426</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-194691.8991232426</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-194686.8991232426</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-194686.8991232426</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-208769.4677232426</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-211192.6104232426</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-211192.6104232426</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-211192.6104232426</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-192346.8123232427</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-199942.1783232427</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-199942.1783232427</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-199942.1783232427</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-199620.0755232427</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-199605.2710232427</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-275514.594699349</v>
       </c>
       <c r="H388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-259627.603999349</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-259627.603999349</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-259264.849099349</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-281916.057199349</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-281889.057199349</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-282258.298399349</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-271231.6919993491</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-271231.6919993491</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-281106.2840993491</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-281101.2840993491</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-285945.1771993491</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-285945.1771993491</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-285940.1771993491</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-297151.6112993491</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-297151.6112993491</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-297151.6112993491</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-297151.6112993491</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-307033.5915993491</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-307028.5915993491</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-351370.0851993491</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-344163.0601993491</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
